--- a/Code/Results/Cases/Case_6_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_11/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.89395790234621</v>
+        <v>15.68954455182162</v>
       </c>
       <c r="C2">
-        <v>14.93493438055047</v>
+        <v>8.593168419988222</v>
       </c>
       <c r="D2">
-        <v>2.272023040310757</v>
+        <v>2.638725720905407</v>
       </c>
       <c r="E2">
-        <v>6.318174593713424</v>
+        <v>7.06372742010081</v>
       </c>
       <c r="F2">
-        <v>41.30696074381395</v>
+        <v>39.36716179573339</v>
       </c>
       <c r="G2">
-        <v>2.110906863536405</v>
+        <v>2.146725041174702</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.822095383702507</v>
+        <v>6.150257404809735</v>
       </c>
       <c r="K2">
-        <v>18.95926537037069</v>
+        <v>13.72947180202531</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.57121995172542</v>
+        <v>12.81038208204171</v>
       </c>
       <c r="N2">
-        <v>15.1620365736273</v>
+        <v>17.37217913896576</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.53253818995184</v>
+        <v>14.82935084284267</v>
       </c>
       <c r="C3">
-        <v>13.93947709889616</v>
+        <v>8.083308261404126</v>
       </c>
       <c r="D3">
-        <v>2.242775940090346</v>
+        <v>2.517758017335097</v>
       </c>
       <c r="E3">
-        <v>6.272112288372727</v>
+        <v>6.927182036136209</v>
       </c>
       <c r="F3">
-        <v>39.92252797877052</v>
+        <v>38.48720968804444</v>
       </c>
       <c r="G3">
-        <v>2.122259786365476</v>
+        <v>2.155422524630772</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.839005370195767</v>
+        <v>6.147255029742876</v>
       </c>
       <c r="K3">
-        <v>17.83343077486957</v>
+        <v>13.05981575751708</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.89380277349459</v>
+        <v>12.39117219568058</v>
       </c>
       <c r="N3">
-        <v>15.32508349206073</v>
+        <v>17.47069000319225</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.66935552118483</v>
+        <v>14.2870566523453</v>
       </c>
       <c r="C4">
-        <v>13.30517398292983</v>
+        <v>7.760567305008685</v>
       </c>
       <c r="D4">
-        <v>2.225435611057041</v>
+        <v>2.451790754777776</v>
       </c>
       <c r="E4">
-        <v>6.246748297168522</v>
+        <v>6.846095741989812</v>
       </c>
       <c r="F4">
-        <v>39.0894060213329</v>
+        <v>37.96440771766555</v>
       </c>
       <c r="G4">
-        <v>2.129383697073095</v>
+        <v>2.160904920280518</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.851783179889533</v>
+        <v>6.147882940374732</v>
       </c>
       <c r="K4">
-        <v>17.12270228232899</v>
+        <v>12.64131920779228</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.47537700566791</v>
+        <v>12.13540380893999</v>
       </c>
       <c r="N4">
-        <v>15.43030044329262</v>
+        <v>17.53624426632047</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.31094575298905</v>
+        <v>14.06275083088537</v>
       </c>
       <c r="C5">
-        <v>13.04094497810621</v>
+        <v>7.626722840336004</v>
       </c>
       <c r="D5">
-        <v>2.21851336124847</v>
+        <v>2.426853295152446</v>
       </c>
       <c r="E5">
-        <v>6.237131726638859</v>
+        <v>6.813765404057076</v>
       </c>
       <c r="F5">
-        <v>38.75432719565242</v>
+        <v>37.75582355422362</v>
       </c>
       <c r="G5">
-        <v>2.132328127901694</v>
+        <v>2.163176330194108</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.85757427006912</v>
+        <v>6.148744251041714</v>
       </c>
       <c r="K5">
-        <v>16.82839161765831</v>
+        <v>12.46914925333383</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.30442652026025</v>
+        <v>12.03171057477521</v>
       </c>
       <c r="N5">
-        <v>15.47441770223993</v>
+        <v>17.5641932472397</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.25103757019508</v>
+        <v>14.0253126705679</v>
       </c>
       <c r="C6">
-        <v>12.99672572413691</v>
+        <v>7.604361492517868</v>
       </c>
       <c r="D6">
-        <v>2.217372329523875</v>
+        <v>2.422706451889606</v>
       </c>
       <c r="E6">
-        <v>6.235577936879512</v>
+        <v>6.808440628883905</v>
       </c>
       <c r="F6">
-        <v>38.69896031510006</v>
+        <v>37.72145958785519</v>
       </c>
       <c r="G6">
-        <v>2.132819627065132</v>
+        <v>2.163555791939991</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.858570640569074</v>
+        <v>6.148923378472186</v>
       </c>
       <c r="K6">
-        <v>16.77924629405575</v>
+        <v>12.44046910769553</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.2760199341049</v>
+        <v>12.014528499929</v>
       </c>
       <c r="N6">
-        <v>15.4818171061301</v>
+        <v>17.56890766187922</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.66454850554146</v>
+        <v>14.28404466227462</v>
       </c>
       <c r="C7">
-        <v>13.30163364346268</v>
+        <v>7.758771476371777</v>
       </c>
       <c r="D7">
-        <v>2.225341685535341</v>
+        <v>2.451454870293379</v>
       </c>
       <c r="E7">
-        <v>6.246615710597232</v>
+        <v>6.845656810049983</v>
       </c>
       <c r="F7">
-        <v>39.08486887101596</v>
+        <v>37.96157653100689</v>
       </c>
       <c r="G7">
-        <v>2.129423235530478</v>
+        <v>2.160935400337331</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.851858939019552</v>
+        <v>6.147892125741369</v>
       </c>
       <c r="K7">
-        <v>17.11875173556587</v>
+        <v>12.63900355175031</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.47307301217351</v>
+        <v>12.13400302981265</v>
       </c>
       <c r="N7">
-        <v>15.43089045432402</v>
+        <v>17.53661624482825</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.43029428986368</v>
+        <v>15.39600895045329</v>
       </c>
       <c r="C8">
-        <v>14.59651329663236</v>
+        <v>8.419435471625199</v>
       </c>
       <c r="D8">
-        <v>2.261803231406061</v>
+        <v>2.597731768858633</v>
       </c>
       <c r="E8">
-        <v>6.301677837408524</v>
+        <v>7.016087691161228</v>
       </c>
       <c r="F8">
-        <v>40.82618707502494</v>
+        <v>39.06016190509825</v>
       </c>
       <c r="G8">
-        <v>2.114791359202006</v>
+        <v>2.149695407339695</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.827417506961069</v>
+        <v>6.14869945112142</v>
       </c>
       <c r="K8">
-        <v>18.57522104137558</v>
+        <v>13.50021077343536</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.33826498106819</v>
+        <v>12.66557252163147</v>
       </c>
       <c r="N8">
-        <v>15.21716755497854</v>
+        <v>17.4050690620532</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.74322325001209</v>
+        <v>17.45663265349244</v>
       </c>
       <c r="C9">
-        <v>17.04314117956431</v>
+        <v>9.63482967383125</v>
       </c>
       <c r="D9">
-        <v>2.338805004783378</v>
+        <v>2.88018230966746</v>
       </c>
       <c r="E9">
-        <v>6.433484649776175</v>
+        <v>7.371247408879424</v>
       </c>
       <c r="F9">
-        <v>44.36992296748192</v>
+        <v>41.35071240441562</v>
       </c>
       <c r="G9">
-        <v>2.087170791866933</v>
+        <v>2.12870552783338</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.799381713279625</v>
+        <v>6.170641565532868</v>
       </c>
       <c r="K9">
-        <v>21.44903784105543</v>
+        <v>15.12349563392475</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.00877719066962</v>
+        <v>13.71599138055907</v>
       </c>
       <c r="N9">
-        <v>14.84086280628618</v>
+        <v>17.18927163263509</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.17532641735367</v>
+        <v>18.89035725810287</v>
       </c>
       <c r="C10">
-        <v>18.74173557451053</v>
+        <v>10.52051869834808</v>
       </c>
       <c r="D10">
-        <v>2.399744303891336</v>
+        <v>3.070402293248046</v>
       </c>
       <c r="E10">
-        <v>6.545853744009955</v>
+        <v>7.643837169955639</v>
       </c>
       <c r="F10">
-        <v>47.04950410208629</v>
+        <v>43.11409025706175</v>
       </c>
       <c r="G10">
-        <v>2.067308800434257</v>
+        <v>2.113810466579007</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.792269018582371</v>
+        <v>6.20026169895419</v>
       </c>
       <c r="K10">
-        <v>23.58369428886747</v>
+        <v>16.26886498585035</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.21448685308814</v>
+        <v>14.48707861374749</v>
       </c>
       <c r="N10">
-        <v>14.59430892322338</v>
+        <v>17.0594448946782</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.2432018304187</v>
+        <v>19.52453168832271</v>
       </c>
       <c r="C11">
-        <v>19.48812822857254</v>
+        <v>10.92773348804929</v>
       </c>
       <c r="D11">
-        <v>2.428700406744159</v>
+        <v>3.15313148113884</v>
       </c>
       <c r="E11">
-        <v>6.600593567614556</v>
+        <v>7.770181512008041</v>
       </c>
       <c r="F11">
-        <v>48.28600157512694</v>
+        <v>43.93361347793764</v>
       </c>
       <c r="G11">
-        <v>2.058309155343232</v>
+        <v>2.107120263214298</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.792301250470781</v>
+        <v>6.216921981578518</v>
       </c>
       <c r="K11">
-        <v>24.51966326023205</v>
+        <v>16.81038059452875</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.77491247400204</v>
+        <v>14.83688042177073</v>
       </c>
       <c r="N11">
-        <v>14.4897127767733</v>
+        <v>17.00738463720859</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.64234493649549</v>
+        <v>19.7763519861081</v>
       </c>
       <c r="C12">
-        <v>19.76722629887103</v>
+        <v>11.07964056930042</v>
       </c>
       <c r="D12">
-        <v>2.439872192656281</v>
+        <v>3.183910534059779</v>
       </c>
       <c r="E12">
-        <v>6.621866473467001</v>
+        <v>7.818349220271161</v>
       </c>
       <c r="F12">
-        <v>48.75695682873772</v>
+        <v>44.24645923136146</v>
       </c>
       <c r="G12">
-        <v>2.054900818159143</v>
+        <v>2.104596563311227</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.792815433757197</v>
+        <v>6.223711469567612</v>
       </c>
       <c r="K12">
-        <v>24.86933906790648</v>
+        <v>17.04306244048163</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.04165941043673</v>
+        <v>14.96915496710522</v>
       </c>
       <c r="N12">
-        <v>14.45130304175382</v>
+        <v>16.98874997129055</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.55660998277896</v>
+        <v>19.71925416011909</v>
       </c>
       <c r="C13">
-        <v>19.70727097579153</v>
+        <v>11.04702543527314</v>
       </c>
       <c r="D13">
-        <v>2.43745642967773</v>
+        <v>3.177306125936768</v>
       </c>
       <c r="E13">
-        <v>6.617260366649728</v>
+        <v>7.807961199922199</v>
       </c>
       <c r="F13">
-        <v>48.65540283514483</v>
+        <v>44.17897006196677</v>
       </c>
       <c r="G13">
-        <v>2.055634976508982</v>
+        <v>2.105139698145445</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.792681819516917</v>
+        <v>6.222227482446875</v>
       </c>
       <c r="K13">
-        <v>24.79423652719517</v>
+        <v>16.99311795762906</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.98437510549887</v>
+        <v>14.94067619404611</v>
       </c>
       <c r="N13">
-        <v>14.4595199785315</v>
+        <v>16.99271402144564</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.27614265893583</v>
+        <v>19.54412683479755</v>
       </c>
       <c r="C14">
-        <v>19.51115933230258</v>
+        <v>10.94027651249113</v>
       </c>
       <c r="D14">
-        <v>2.429615186072091</v>
+        <v>3.155674692519225</v>
       </c>
       <c r="E14">
-        <v>6.602332652418362</v>
+        <v>7.774137867042629</v>
       </c>
       <c r="F14">
-        <v>48.32469129045431</v>
+        <v>43.95930097434764</v>
       </c>
       <c r="G14">
-        <v>2.058028790914582</v>
+        <v>2.106912457503431</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.792333295502193</v>
+        <v>6.217470790626249</v>
       </c>
       <c r="K14">
-        <v>24.54852478377416</v>
+        <v>16.82959923669219</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.79693235994892</v>
+        <v>14.84776670058412</v>
       </c>
       <c r="N14">
-        <v>14.48652805740613</v>
+        <v>17.00582947121892</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.10367590753068</v>
+        <v>19.44155311446479</v>
       </c>
       <c r="C15">
-        <v>19.39058139891674</v>
+        <v>10.87459315875198</v>
       </c>
       <c r="D15">
-        <v>2.424840081328449</v>
+        <v>3.14235333789378</v>
       </c>
       <c r="E15">
-        <v>6.593260602918038</v>
+        <v>7.753461961158107</v>
       </c>
       <c r="F15">
-        <v>48.12248299138783</v>
+        <v>43.82507521943423</v>
       </c>
       <c r="G15">
-        <v>2.059494847669563</v>
+        <v>2.107999510600401</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.792186200763529</v>
+        <v>6.214620461252643</v>
       </c>
       <c r="K15">
-        <v>24.3974093271251</v>
+        <v>16.72894598184538</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.68649621200827</v>
+        <v>14.79083138814314</v>
       </c>
       <c r="N15">
-        <v>14.50323100391799</v>
+        <v>17.01400594267734</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.1047878354115</v>
+        <v>18.84854805545142</v>
       </c>
       <c r="C16">
-        <v>18.6924472085343</v>
+        <v>10.49358044570652</v>
       </c>
       <c r="D16">
-        <v>2.397879172995863</v>
+        <v>3.064919019008052</v>
       </c>
       <c r="E16">
-        <v>6.542351173031944</v>
+        <v>7.635626198995513</v>
       </c>
       <c r="F16">
-        <v>46.96906350498079</v>
+        <v>43.06088218578046</v>
       </c>
       <c r="G16">
-        <v>2.067897212990459</v>
+        <v>2.114249195596666</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.792335329387904</v>
+        <v>6.199238905383264</v>
       </c>
       <c r="K16">
-        <v>23.52184426886209</v>
+        <v>16.23531190606123</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.17887055163467</v>
+        <v>14.46419416002781</v>
       </c>
       <c r="N16">
-        <v>14.60130576400024</v>
+        <v>17.06299404493865</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.48233753697459</v>
+        <v>18.48012257812679</v>
       </c>
       <c r="C17">
-        <v>18.2575845151144</v>
+        <v>10.25566516473102</v>
       </c>
       <c r="D17">
-        <v>2.381674870871599</v>
+        <v>3.016439610450241</v>
       </c>
       <c r="E17">
-        <v>6.512063233314398</v>
+        <v>7.563927154134592</v>
       </c>
       <c r="F17">
-        <v>46.26607782334948</v>
+        <v>42.59651939907272</v>
       </c>
       <c r="G17">
-        <v>2.073057243481856</v>
+        <v>2.118103351789147</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.793285498273735</v>
+        <v>6.190634327964214</v>
       </c>
       <c r="K17">
-        <v>22.97591906333757</v>
+        <v>15.9400159597462</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.86617493171332</v>
+        <v>14.26352401596594</v>
       </c>
       <c r="N17">
-        <v>14.66348150606985</v>
+        <v>17.09488863217976</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.12067588411391</v>
+        <v>18.26651478138832</v>
       </c>
       <c r="C18">
-        <v>18.00497048348494</v>
+        <v>10.11726362599835</v>
       </c>
       <c r="D18">
-        <v>2.372468744431489</v>
+        <v>2.988197572180489</v>
       </c>
       <c r="E18">
-        <v>6.494981827653445</v>
+        <v>7.522908740017497</v>
       </c>
       <c r="F18">
-        <v>45.86337215541077</v>
+        <v>42.33106092182911</v>
       </c>
       <c r="G18">
-        <v>2.076028883580875</v>
+        <v>2.120328389561459</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.794137476978266</v>
+        <v>6.18598364925387</v>
       </c>
       <c r="K18">
-        <v>22.65859406878818</v>
+        <v>15.76912671977188</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.68584340364744</v>
+        <v>14.14801431650017</v>
       </c>
       <c r="N18">
-        <v>14.69994745600911</v>
+        <v>17.11388746459728</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.99758922821564</v>
+        <v>18.19389983949145</v>
       </c>
       <c r="C19">
-        <v>17.91900497277854</v>
+        <v>10.07013332667206</v>
       </c>
       <c r="D19">
-        <v>2.3693705099512</v>
+        <v>2.978573912157765</v>
       </c>
       <c r="E19">
-        <v>6.489255996729508</v>
+        <v>7.509059021883171</v>
       </c>
       <c r="F19">
-        <v>45.72729916264701</v>
+        <v>42.24146140786743</v>
       </c>
       <c r="G19">
-        <v>2.077035825745305</v>
+        <v>2.121083236959691</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.794477486775788</v>
+        <v>6.184459607760892</v>
       </c>
       <c r="K19">
-        <v>22.55057428003918</v>
+        <v>15.71108887918235</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.62470425920005</v>
+        <v>14.10889112376734</v>
       </c>
       <c r="N19">
-        <v>14.71241205394891</v>
+        <v>17.12043035659878</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.54897365046162</v>
+        <v>18.5195181320087</v>
       </c>
       <c r="C20">
-        <v>18.30413275122579</v>
+        <v>10.28115247674787</v>
       </c>
       <c r="D20">
-        <v>2.383387836651451</v>
+        <v>3.021637394033526</v>
       </c>
       <c r="E20">
-        <v>6.51525215014685</v>
+        <v>7.571536875728153</v>
       </c>
       <c r="F20">
-        <v>46.34074174521692</v>
+        <v>42.64578283757493</v>
       </c>
       <c r="G20">
-        <v>2.072507601185873</v>
+        <v>2.117692236480054</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.793152515601346</v>
+        <v>6.191519253934519</v>
       </c>
       <c r="K20">
-        <v>23.03437569559003</v>
+        <v>15.97155896196179</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.8995112756537</v>
+        <v>14.28489537367629</v>
       </c>
       <c r="N20">
-        <v>14.65678917596894</v>
+        <v>17.09142521827755</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.35866223469926</v>
+        <v>19.59322191233133</v>
       </c>
       <c r="C21">
-        <v>19.56885618556143</v>
+        <v>10.97169290631805</v>
       </c>
       <c r="D21">
-        <v>2.431912478500641</v>
+        <v>3.162043265144365</v>
       </c>
       <c r="E21">
-        <v>6.606702314918755</v>
+        <v>7.784063892817068</v>
       </c>
       <c r="F21">
-        <v>48.4217533185488</v>
+        <v>44.02375470002585</v>
       </c>
       <c r="G21">
-        <v>2.057325727104863</v>
+        <v>2.106391512754795</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.792421768126171</v>
+        <v>6.218854716132414</v>
       </c>
       <c r="K21">
-        <v>24.62082280516134</v>
+        <v>16.87773122272904</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.85208961090843</v>
+        <v>14.8750618577733</v>
       </c>
       <c r="N21">
-        <v>14.47856161826669</v>
+        <v>17.00194722765492</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.51104366137434</v>
+        <v>20.35389652255815</v>
       </c>
       <c r="C22">
-        <v>20.37490455548692</v>
+        <v>11.40966062314875</v>
       </c>
       <c r="D22">
-        <v>2.464848881593265</v>
+        <v>3.250608928552261</v>
       </c>
       <c r="E22">
-        <v>6.669655223709768</v>
+        <v>7.924847375934438</v>
       </c>
       <c r="F22">
-        <v>49.79784744035445</v>
+        <v>44.93900233850267</v>
       </c>
       <c r="G22">
-        <v>2.047398236392006</v>
+        <v>2.099061188162267</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.794887732553627</v>
+        <v>6.2395329281958</v>
       </c>
       <c r="K22">
-        <v>25.63010666608249</v>
+        <v>17.54802469344214</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.62172176888845</v>
+        <v>15.25966655571446</v>
       </c>
       <c r="N22">
-        <v>14.36913211352107</v>
+        <v>16.94979985999967</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.89866095105943</v>
+        <v>19.94695030388275</v>
       </c>
       <c r="C23">
-        <v>19.94649004774839</v>
+        <v>11.17710104731615</v>
       </c>
       <c r="D23">
-        <v>2.447147085221386</v>
+        <v>3.203632457022675</v>
       </c>
       <c r="E23">
-        <v>6.63575605845321</v>
+        <v>7.849539264372857</v>
       </c>
       <c r="F23">
-        <v>49.06183764737681</v>
+        <v>44.44916168749128</v>
       </c>
       <c r="G23">
-        <v>2.052699225647427</v>
+        <v>2.102969377523904</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.793290683245867</v>
+        <v>6.228231352459138</v>
       </c>
       <c r="K23">
-        <v>25.09384621255219</v>
+        <v>17.19226315350053</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.21287922205895</v>
+        <v>15.05450766268099</v>
       </c>
       <c r="N23">
-        <v>14.42684937926531</v>
+        <v>16.97702622720025</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.51885934238397</v>
+        <v>18.50171299232054</v>
       </c>
       <c r="C24">
-        <v>18.28309642726465</v>
+        <v>10.26963471734273</v>
       </c>
       <c r="D24">
-        <v>2.382613064501437</v>
+        <v>3.019288630187683</v>
       </c>
       <c r="E24">
-        <v>6.513809409894137</v>
+        <v>7.568095889369088</v>
       </c>
       <c r="F24">
-        <v>46.30698168264873</v>
+        <v>42.62350613472847</v>
       </c>
       <c r="G24">
-        <v>2.072756078271698</v>
+        <v>2.117878072763833</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.793211687215886</v>
+        <v>6.191118257963085</v>
       </c>
       <c r="K24">
-        <v>23.0079582673303</v>
+        <v>15.95730185551025</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.88444165591528</v>
+        <v>14.27523382049302</v>
       </c>
       <c r="N24">
-        <v>14.65981254303423</v>
+        <v>17.09298897049284</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.81897379862108</v>
+        <v>16.91291699291221</v>
       </c>
       <c r="C25">
-        <v>16.39290863470127</v>
+        <v>9.314968724250027</v>
       </c>
       <c r="D25">
-        <v>2.317291083787865</v>
+        <v>2.806784130793859</v>
       </c>
       <c r="E25">
-        <v>6.395176992270812</v>
+        <v>7.273045501994437</v>
       </c>
       <c r="F25">
-        <v>43.39795094973507</v>
+        <v>40.7167850283834</v>
       </c>
       <c r="G25">
-        <v>2.094549575735899</v>
+        <v>2.134282533334957</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.804703991214709</v>
+        <v>6.162417004679237</v>
       </c>
       <c r="K25">
-        <v>20.63008611410255</v>
+        <v>14.69225777243588</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.56039278862747</v>
+        <v>13.43159635760631</v>
       </c>
       <c r="N25">
-        <v>14.93772581884617</v>
+        <v>17.24284470387126</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.68954455182162</v>
+        <v>12.36897906358571</v>
       </c>
       <c r="C2">
-        <v>8.593168419988222</v>
+        <v>8.211607794372508</v>
       </c>
       <c r="D2">
-        <v>2.638725720905407</v>
+        <v>5.668005083860428</v>
       </c>
       <c r="E2">
-        <v>7.06372742010081</v>
+        <v>8.676872782619405</v>
       </c>
       <c r="F2">
-        <v>39.36716179573339</v>
+        <v>26.95848034745075</v>
       </c>
       <c r="G2">
-        <v>2.146725041174702</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>32.89999173623735</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.250835768474635</v>
       </c>
       <c r="J2">
-        <v>6.150257404809735</v>
+        <v>11.48949080000921</v>
       </c>
       <c r="K2">
-        <v>13.72947180202531</v>
+        <v>17.44669757511075</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.015907877236477</v>
       </c>
       <c r="M2">
-        <v>12.81038208204171</v>
+        <v>11.34635468044708</v>
       </c>
       <c r="N2">
-        <v>17.37217913896576</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>11.72230257910418</v>
+      </c>
+      <c r="P2">
+        <v>13.81853672664057</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.82935084284267</v>
+        <v>11.53864995675873</v>
       </c>
       <c r="C3">
-        <v>8.083308261404126</v>
+        <v>7.635554598075496</v>
       </c>
       <c r="D3">
-        <v>2.517758017335097</v>
+        <v>5.449610525831302</v>
       </c>
       <c r="E3">
-        <v>6.927182036136209</v>
+        <v>8.483255150565071</v>
       </c>
       <c r="F3">
-        <v>38.48720968804444</v>
+        <v>26.55267563433783</v>
       </c>
       <c r="G3">
-        <v>2.155422524630772</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>32.32424862813127</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.441718912806781</v>
       </c>
       <c r="J3">
-        <v>6.147255029742876</v>
+        <v>11.47745649569096</v>
       </c>
       <c r="K3">
-        <v>13.05981575751708</v>
+        <v>17.43609766087186</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.016947631640502</v>
       </c>
       <c r="M3">
-        <v>12.39117219568058</v>
+        <v>10.61125808491234</v>
       </c>
       <c r="N3">
-        <v>17.47069000319225</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>11.27306282417702</v>
+      </c>
+      <c r="P3">
+        <v>13.99245973183782</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.2870566523453</v>
+        <v>10.99584025350375</v>
       </c>
       <c r="C4">
-        <v>7.760567305008685</v>
+        <v>7.266286473556294</v>
       </c>
       <c r="D4">
-        <v>2.451790754777776</v>
+        <v>5.314564468490677</v>
       </c>
       <c r="E4">
-        <v>6.846095741989812</v>
+        <v>8.367223141302778</v>
       </c>
       <c r="F4">
-        <v>37.96440771766555</v>
+        <v>26.31346435896974</v>
       </c>
       <c r="G4">
-        <v>2.160904920280518</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>31.98213740929602</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.563810940247874</v>
       </c>
       <c r="J4">
-        <v>6.147882940374732</v>
+        <v>11.47425744801719</v>
       </c>
       <c r="K4">
-        <v>12.64131920779228</v>
+        <v>17.43474213793081</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.019870012473024</v>
       </c>
       <c r="M4">
-        <v>12.13540380893999</v>
+        <v>10.13358646112688</v>
       </c>
       <c r="N4">
-        <v>17.53624426632047</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>10.99285095844192</v>
+      </c>
+      <c r="P4">
+        <v>14.10108937639755</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.06275083088537</v>
+        <v>10.77724836784577</v>
       </c>
       <c r="C5">
-        <v>7.626722840336004</v>
+        <v>7.12042606478362</v>
       </c>
       <c r="D5">
-        <v>2.426853295152446</v>
+        <v>5.26169461766906</v>
       </c>
       <c r="E5">
-        <v>6.813765404057076</v>
+        <v>8.321610222475467</v>
       </c>
       <c r="F5">
-        <v>37.75582355422362</v>
+        <v>26.2101456610405</v>
       </c>
       <c r="G5">
-        <v>2.163176330194108</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>31.83051151435232</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.617509436500804</v>
       </c>
       <c r="J5">
-        <v>6.148744251041714</v>
+        <v>11.47129208031534</v>
       </c>
       <c r="K5">
-        <v>12.46914925333383</v>
+        <v>17.42905428067533</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.021470765226741</v>
       </c>
       <c r="M5">
-        <v>12.03171057477521</v>
+        <v>9.931362462292679</v>
       </c>
       <c r="N5">
-        <v>17.5641932472397</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>10.87783218033865</v>
+      </c>
+      <c r="P5">
+        <v>14.14458971033529</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.0253126705679</v>
+        <v>10.73352016243245</v>
       </c>
       <c r="C6">
-        <v>7.604361492517868</v>
+        <v>7.10642664515919</v>
       </c>
       <c r="D6">
-        <v>2.422706451889606</v>
+        <v>5.255740970525615</v>
       </c>
       <c r="E6">
-        <v>6.808440628883905</v>
+        <v>8.31518778215368</v>
       </c>
       <c r="F6">
-        <v>37.72145958785519</v>
+        <v>26.18289542722909</v>
       </c>
       <c r="G6">
-        <v>2.163555791939991</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>31.78698972160291</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.629959071476917</v>
       </c>
       <c r="J6">
-        <v>6.148923378472186</v>
+        <v>11.46757316813886</v>
       </c>
       <c r="K6">
-        <v>12.44046910769553</v>
+        <v>17.4203679927377</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.021582753934662</v>
       </c>
       <c r="M6">
-        <v>12.014528499929</v>
+        <v>9.896241215597369</v>
       </c>
       <c r="N6">
-        <v>17.56890766187922</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>10.85880358543659</v>
+      </c>
+      <c r="P6">
+        <v>14.15032241323679</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.28404466227462</v>
+        <v>10.9738057819033</v>
       </c>
       <c r="C7">
-        <v>7.758771476371777</v>
+        <v>7.292132186233332</v>
       </c>
       <c r="D7">
-        <v>2.451454870293379</v>
+        <v>5.321477003580084</v>
       </c>
       <c r="E7">
-        <v>6.845656810049983</v>
+        <v>8.369593505852761</v>
       </c>
       <c r="F7">
-        <v>37.96157653100689</v>
+        <v>26.28421499875468</v>
       </c>
       <c r="G7">
-        <v>2.160935400337331</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>31.92977950123948</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.573704002019108</v>
       </c>
       <c r="J7">
-        <v>6.147892125741369</v>
+        <v>11.46525032582777</v>
       </c>
       <c r="K7">
-        <v>12.63900355175031</v>
+        <v>17.41333487732885</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.019378515121578</v>
       </c>
       <c r="M7">
-        <v>12.13400302981265</v>
+        <v>10.12783829405247</v>
       </c>
       <c r="N7">
-        <v>17.53661624482825</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>10.99161741432061</v>
+      </c>
+      <c r="P7">
+        <v>14.09756787493412</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.39600895045329</v>
+        <v>12.06644528999291</v>
       </c>
       <c r="C8">
-        <v>8.419435471625199</v>
+        <v>8.049823883071806</v>
       </c>
       <c r="D8">
-        <v>2.597731768858633</v>
+        <v>5.602548756266894</v>
       </c>
       <c r="E8">
-        <v>7.016087691161228</v>
+        <v>8.613389371652692</v>
       </c>
       <c r="F8">
-        <v>39.06016190509825</v>
+        <v>26.780397785388</v>
       </c>
       <c r="G8">
-        <v>2.149695407339695</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>32.63406176601105</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.327438961382136</v>
       </c>
       <c r="J8">
-        <v>6.14869945112142</v>
+        <v>11.47267724105532</v>
       </c>
       <c r="K8">
-        <v>13.50021077343536</v>
+        <v>17.41388058864812</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.015114690712677</v>
       </c>
       <c r="M8">
-        <v>12.66557252163147</v>
+        <v>11.09459595785755</v>
       </c>
       <c r="N8">
-        <v>17.4050690620532</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>11.56875595583791</v>
+      </c>
+      <c r="P8">
+        <v>13.87289741607827</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.45663265349244</v>
+        <v>13.97960541927965</v>
       </c>
       <c r="C9">
-        <v>9.63482967383125</v>
+        <v>9.369611355913319</v>
       </c>
       <c r="D9">
-        <v>2.88018230966746</v>
+        <v>6.130023832781925</v>
       </c>
       <c r="E9">
-        <v>7.371247408879424</v>
+        <v>9.106631564518315</v>
       </c>
       <c r="F9">
-        <v>41.35071240441562</v>
+        <v>27.87914409563256</v>
       </c>
       <c r="G9">
-        <v>2.12870552783338</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>34.18995777107663</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.867485071993611</v>
       </c>
       <c r="J9">
-        <v>6.170641565532868</v>
+        <v>11.53762791428126</v>
       </c>
       <c r="K9">
-        <v>15.12349563392475</v>
+        <v>17.49546255013334</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.026289556690657</v>
       </c>
       <c r="M9">
-        <v>13.71599138055907</v>
+        <v>12.78753181008282</v>
       </c>
       <c r="N9">
-        <v>17.18927163263509</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>12.65874899532291</v>
+      </c>
+      <c r="P9">
+        <v>13.45310056710764</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.89035725810287</v>
+        <v>15.22254414771561</v>
       </c>
       <c r="C10">
-        <v>10.52051869834808</v>
+        <v>10.27709046946826</v>
       </c>
       <c r="D10">
-        <v>3.070402293248046</v>
+        <v>6.510123298218399</v>
       </c>
       <c r="E10">
-        <v>7.643837169955639</v>
+        <v>9.479706673645591</v>
       </c>
       <c r="F10">
-        <v>43.11409025706175</v>
+        <v>28.71795447653921</v>
       </c>
       <c r="G10">
-        <v>2.113810466579007</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>35.3590199865172</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.558024930891787</v>
       </c>
       <c r="J10">
-        <v>6.20026169895419</v>
+        <v>11.60375981915462</v>
       </c>
       <c r="K10">
-        <v>16.26886498585035</v>
+        <v>17.57341663469671</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.046316351274438</v>
       </c>
       <c r="M10">
-        <v>14.48707861374749</v>
+        <v>13.90521917489129</v>
       </c>
       <c r="N10">
-        <v>17.0594448946782</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>13.42684862660176</v>
+      </c>
+      <c r="P10">
+        <v>13.15009550450384</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.52453168832271</v>
+        <v>15.73287674339267</v>
       </c>
       <c r="C11">
-        <v>10.92773348804929</v>
+        <v>10.70575950595823</v>
       </c>
       <c r="D11">
-        <v>3.15313148113884</v>
+        <v>6.689876449035061</v>
       </c>
       <c r="E11">
-        <v>7.770181512008041</v>
+        <v>9.65502324120683</v>
       </c>
       <c r="F11">
-        <v>43.93361347793764</v>
+        <v>29.06793773981995</v>
       </c>
       <c r="G11">
-        <v>2.107120263214298</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>35.8281635395305</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.561203131018918</v>
       </c>
       <c r="J11">
-        <v>6.216921981578518</v>
+        <v>11.62506050373952</v>
       </c>
       <c r="K11">
-        <v>16.81038059452875</v>
+        <v>17.58181841662815</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.057391548202822</v>
       </c>
       <c r="M11">
-        <v>14.83688042177073</v>
+        <v>14.38333623492952</v>
       </c>
       <c r="N11">
-        <v>17.00738463720859</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>13.76807358327266</v>
+      </c>
+      <c r="P11">
+        <v>13.00769551835222</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.7763519861081</v>
+        <v>15.93370734815888</v>
       </c>
       <c r="C12">
-        <v>11.07964056930042</v>
+        <v>10.84844790927809</v>
       </c>
       <c r="D12">
-        <v>3.183910534059779</v>
+        <v>6.752053781579155</v>
       </c>
       <c r="E12">
-        <v>7.818349220271161</v>
+        <v>9.719302791065534</v>
       </c>
       <c r="F12">
-        <v>44.24645923136146</v>
+        <v>29.22376655163505</v>
       </c>
       <c r="G12">
-        <v>2.104596563311227</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>36.04649417142289</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.612087559094906</v>
       </c>
       <c r="J12">
-        <v>6.223711469567612</v>
+        <v>11.64146728082783</v>
       </c>
       <c r="K12">
-        <v>17.04306244048163</v>
+        <v>17.6040564073866</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.062429091229181</v>
       </c>
       <c r="M12">
-        <v>14.96915496710522</v>
+        <v>14.56263660416383</v>
       </c>
       <c r="N12">
-        <v>16.98874997129055</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.89588305180218</v>
+      </c>
+      <c r="P12">
+        <v>12.95709577628423</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.71925416011909</v>
+        <v>15.89305701527215</v>
       </c>
       <c r="C13">
-        <v>11.04702543527314</v>
+        <v>10.81441985892931</v>
       </c>
       <c r="D13">
-        <v>3.177306125936768</v>
+        <v>6.737622434127171</v>
       </c>
       <c r="E13">
-        <v>7.807961199922199</v>
+        <v>9.705004503072971</v>
       </c>
       <c r="F13">
-        <v>44.17897006196677</v>
+        <v>29.19452215560653</v>
       </c>
       <c r="G13">
-        <v>2.105139698145445</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>36.00720302756804</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.600407342581059</v>
       </c>
       <c r="J13">
-        <v>6.222227482446875</v>
+        <v>11.63940804115221</v>
       </c>
       <c r="K13">
-        <v>16.99311795762906</v>
+        <v>17.60283537725642</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.061412302337943</v>
       </c>
       <c r="M13">
-        <v>14.94067619404611</v>
+        <v>14.52458833870465</v>
       </c>
       <c r="N13">
-        <v>16.99271402144564</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.86839507804515</v>
+      </c>
+      <c r="P13">
+        <v>12.96861497514823</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.54412683479755</v>
+        <v>15.75051812909814</v>
       </c>
       <c r="C14">
-        <v>10.94027651249113</v>
+        <v>10.71608714904317</v>
       </c>
       <c r="D14">
-        <v>3.155674692519225</v>
+        <v>6.694547370371941</v>
       </c>
       <c r="E14">
-        <v>7.774137867042629</v>
+        <v>9.660117267332492</v>
       </c>
       <c r="F14">
-        <v>43.95930097434764</v>
+        <v>29.08259688390491</v>
       </c>
       <c r="G14">
-        <v>2.106912457503431</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>35.84942194991046</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.565070100478936</v>
       </c>
       <c r="J14">
-        <v>6.217470790626249</v>
+        <v>11.62703654709293</v>
       </c>
       <c r="K14">
-        <v>16.82959923669219</v>
+        <v>17.58516431869523</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.057834513001144</v>
       </c>
       <c r="M14">
-        <v>14.84776670058412</v>
+        <v>14.39833393586032</v>
       </c>
       <c r="N14">
-        <v>17.00582947121892</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.77860580536358</v>
+      </c>
+      <c r="P14">
+        <v>13.00379694062285</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.44155311446479</v>
+        <v>15.65781064105604</v>
       </c>
       <c r="C15">
-        <v>10.87459315875198</v>
+        <v>10.66237688180703</v>
       </c>
       <c r="D15">
-        <v>3.14235333789378</v>
+        <v>6.670218502035813</v>
       </c>
       <c r="E15">
-        <v>7.753461961158107</v>
+        <v>9.633533407624698</v>
       </c>
       <c r="F15">
-        <v>43.82507521943423</v>
+        <v>29.00553077398835</v>
       </c>
       <c r="G15">
-        <v>2.107999510600401</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>35.73748513703124</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.544994536132195</v>
       </c>
       <c r="J15">
-        <v>6.214620461252643</v>
+        <v>11.61658201977339</v>
       </c>
       <c r="K15">
-        <v>16.72894598184538</v>
+        <v>17.56734312618165</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.055526031524717</v>
       </c>
       <c r="M15">
-        <v>14.79083138814314</v>
+        <v>14.31970993529653</v>
       </c>
       <c r="N15">
-        <v>17.01400594267734</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.72348037529892</v>
+      </c>
+      <c r="P15">
+        <v>13.02412677602504</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.84854805545142</v>
+        <v>15.14724400893174</v>
       </c>
       <c r="C16">
-        <v>10.49358044570652</v>
+        <v>10.30759021466929</v>
       </c>
       <c r="D16">
-        <v>3.064919019008052</v>
+        <v>6.516501379902655</v>
       </c>
       <c r="E16">
-        <v>7.635626198995513</v>
+        <v>9.475887717756857</v>
       </c>
       <c r="F16">
-        <v>43.06088218578046</v>
+        <v>28.62143586308141</v>
       </c>
       <c r="G16">
-        <v>2.114249195596666</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>35.19672466267846</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.597123531784658</v>
       </c>
       <c r="J16">
-        <v>6.199238905383264</v>
+        <v>11.5772579934384</v>
       </c>
       <c r="K16">
-        <v>16.23531190606123</v>
+        <v>17.51270165126752</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.044205377180968</v>
       </c>
       <c r="M16">
-        <v>14.46419416002781</v>
+        <v>13.86658550747436</v>
       </c>
       <c r="N16">
-        <v>17.06299404493865</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>13.40477412037554</v>
+      </c>
+      <c r="P16">
+        <v>13.14886295424818</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.48012257812679</v>
+        <v>14.82556412430766</v>
       </c>
       <c r="C17">
-        <v>10.25566516473102</v>
+        <v>10.08613805212728</v>
       </c>
       <c r="D17">
-        <v>3.016439610450241</v>
+        <v>6.421396994583393</v>
       </c>
       <c r="E17">
-        <v>7.563927154134592</v>
+        <v>9.379501592290213</v>
       </c>
       <c r="F17">
-        <v>42.59651939907272</v>
+        <v>28.38826825543378</v>
       </c>
       <c r="G17">
-        <v>2.118103351789147</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>34.86770673790874</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.68069260224994</v>
       </c>
       <c r="J17">
-        <v>6.190634327964214</v>
+        <v>11.55461154628872</v>
       </c>
       <c r="K17">
-        <v>15.9400159597462</v>
+        <v>17.48116346546959</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.037985409282625</v>
       </c>
       <c r="M17">
-        <v>14.26352401596594</v>
+        <v>13.58180956428858</v>
       </c>
       <c r="N17">
-        <v>17.09488863217976</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>13.20705671140318</v>
+      </c>
+      <c r="P17">
+        <v>13.22573199426046</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.26651478138832</v>
+        <v>14.65030547491457</v>
       </c>
       <c r="C18">
-        <v>10.11726362599835</v>
+        <v>9.938905529547998</v>
       </c>
       <c r="D18">
-        <v>2.988197572180489</v>
+        <v>6.360767646882959</v>
       </c>
       <c r="E18">
-        <v>7.522908740017497</v>
+        <v>9.32184811111933</v>
       </c>
       <c r="F18">
-        <v>42.33106092182911</v>
+        <v>28.27772737891176</v>
       </c>
       <c r="G18">
-        <v>2.120328389561459</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>34.71999615398594</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.719049066944896</v>
       </c>
       <c r="J18">
-        <v>6.18598364925387</v>
+        <v>11.54978573055736</v>
       </c>
       <c r="K18">
-        <v>15.76912671977188</v>
+        <v>17.4820409692664</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.035109121018137</v>
       </c>
       <c r="M18">
-        <v>14.14801431650017</v>
+        <v>13.41763440810075</v>
       </c>
       <c r="N18">
-        <v>17.11388746459728</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.09241747227008</v>
+      </c>
+      <c r="P18">
+        <v>13.27328739145069</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.19389983949145</v>
+        <v>14.58050664316046</v>
       </c>
       <c r="C19">
-        <v>10.07013332667206</v>
+        <v>9.9030063608418</v>
       </c>
       <c r="D19">
-        <v>2.978573912157765</v>
+        <v>6.344540508402306</v>
       </c>
       <c r="E19">
-        <v>7.509059021883171</v>
+        <v>9.304161151269682</v>
       </c>
       <c r="F19">
-        <v>42.24146140786743</v>
+        <v>28.22300914708191</v>
       </c>
       <c r="G19">
-        <v>2.121083236959691</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>34.63895680590674</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.739917219231262</v>
       </c>
       <c r="J19">
-        <v>6.184459607760892</v>
+        <v>11.5423302838462</v>
       </c>
       <c r="K19">
-        <v>15.71108887918235</v>
+        <v>17.46834264336149</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.033841437774255</v>
       </c>
       <c r="M19">
-        <v>14.10889112376734</v>
+        <v>13.35997442387329</v>
       </c>
       <c r="N19">
-        <v>17.12043035659878</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.05357572461272</v>
+      </c>
+      <c r="P19">
+        <v>13.28693787480477</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.5195181320087</v>
+        <v>14.86113021603925</v>
       </c>
       <c r="C20">
-        <v>10.28115247674787</v>
+        <v>10.1084291538305</v>
       </c>
       <c r="D20">
-        <v>3.021637394033526</v>
+        <v>6.431111440523241</v>
       </c>
       <c r="E20">
-        <v>7.571536875728153</v>
+        <v>9.389565481227654</v>
       </c>
       <c r="F20">
-        <v>42.64578283757493</v>
+        <v>28.41476253175275</v>
       </c>
       <c r="G20">
-        <v>2.117692236480054</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>34.90578586128682</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.67092866858535</v>
       </c>
       <c r="J20">
-        <v>6.191519253934519</v>
+        <v>11.55756755746476</v>
       </c>
       <c r="K20">
-        <v>15.97155896196179</v>
+        <v>17.48588081295574</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.038654705191561</v>
       </c>
       <c r="M20">
-        <v>14.28489537367629</v>
+        <v>13.61254949312797</v>
       </c>
       <c r="N20">
-        <v>17.09142521827755</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>13.2281753293074</v>
+      </c>
+      <c r="P20">
+        <v>13.21778598781778</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.59322191233133</v>
+        <v>15.77903319990141</v>
       </c>
       <c r="C21">
-        <v>10.97169290631805</v>
+        <v>10.76414893441211</v>
       </c>
       <c r="D21">
-        <v>3.162043265144365</v>
+        <v>6.713190704053068</v>
       </c>
       <c r="E21">
-        <v>7.784063892817068</v>
+        <v>9.675817711418711</v>
       </c>
       <c r="F21">
-        <v>44.02375470002585</v>
+        <v>29.09087375999786</v>
       </c>
       <c r="G21">
-        <v>2.106391512754795</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>35.85195366172204</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.579968921507187</v>
       </c>
       <c r="J21">
-        <v>6.218854716132414</v>
+        <v>11.62217355224829</v>
       </c>
       <c r="K21">
-        <v>16.87773122272904</v>
+        <v>17.57005248313205</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.058387836158891</v>
       </c>
       <c r="M21">
-        <v>14.8750618577733</v>
+        <v>14.43327412116901</v>
       </c>
       <c r="N21">
-        <v>17.00194722765492</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>13.80513113101264</v>
+      </c>
+      <c r="P21">
+        <v>12.9899374286162</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.35389652255815</v>
+        <v>16.36856044270397</v>
       </c>
       <c r="C22">
-        <v>11.40966062314875</v>
+        <v>11.15613283274487</v>
       </c>
       <c r="D22">
-        <v>3.250608928552261</v>
+        <v>6.88716256321545</v>
       </c>
       <c r="E22">
-        <v>7.924847375934438</v>
+        <v>9.860590902093076</v>
       </c>
       <c r="F22">
-        <v>44.93900233850267</v>
+        <v>29.57175891548997</v>
       </c>
       <c r="G22">
-        <v>2.099061188162267</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>36.53444050421278</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.723090459866988</v>
       </c>
       <c r="J22">
-        <v>6.2395329281958</v>
+        <v>11.68011641122058</v>
       </c>
       <c r="K22">
-        <v>17.54802469344214</v>
+        <v>17.65747289806743</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.074325255553179</v>
       </c>
       <c r="M22">
-        <v>15.25966655571446</v>
+        <v>14.95042579084815</v>
       </c>
       <c r="N22">
-        <v>16.94979985999967</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>14.17454267898423</v>
+      </c>
+      <c r="P22">
+        <v>12.84654668548789</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.94695030388275</v>
+        <v>16.07250547222239</v>
       </c>
       <c r="C23">
-        <v>11.17710104731615</v>
+        <v>10.9252490317455</v>
       </c>
       <c r="D23">
-        <v>3.203632457022675</v>
+        <v>6.787433684492959</v>
       </c>
       <c r="E23">
-        <v>7.849539264372857</v>
+        <v>9.758888671285503</v>
       </c>
       <c r="F23">
-        <v>44.44916168749128</v>
+        <v>29.34387366965999</v>
       </c>
       <c r="G23">
-        <v>2.102969377523904</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>36.22192064974678</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.641932480906223</v>
       </c>
       <c r="J23">
-        <v>6.228231352459138</v>
+        <v>11.6589260125166</v>
       </c>
       <c r="K23">
-        <v>17.19226315350053</v>
+        <v>17.63460071782032</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.066178475430265</v>
       </c>
       <c r="M23">
-        <v>15.05450766268099</v>
+        <v>14.67910531752292</v>
       </c>
       <c r="N23">
-        <v>16.97702622720025</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>13.97795846062145</v>
+      </c>
+      <c r="P23">
+        <v>12.92723127489189</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.50171299232054</v>
+        <v>14.87202600127963</v>
       </c>
       <c r="C24">
-        <v>10.26963471734273</v>
+        <v>10.05983196352759</v>
       </c>
       <c r="D24">
-        <v>3.019288630187683</v>
+        <v>6.414882309236382</v>
       </c>
       <c r="E24">
-        <v>7.568095889369088</v>
+        <v>9.380079611380101</v>
       </c>
       <c r="F24">
-        <v>42.62350613472847</v>
+        <v>28.45047979088153</v>
       </c>
       <c r="G24">
-        <v>2.117878072763833</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>34.97382247391099</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.654570679163926</v>
       </c>
       <c r="J24">
-        <v>6.191118257963085</v>
+        <v>11.57243330956063</v>
       </c>
       <c r="K24">
-        <v>15.95730185551025</v>
+        <v>17.5224584172604</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.03927894317813</v>
       </c>
       <c r="M24">
-        <v>14.27523382049302</v>
+        <v>13.60312560702965</v>
       </c>
       <c r="N24">
-        <v>17.09298897049284</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>13.21835339775644</v>
+      </c>
+      <c r="P24">
+        <v>13.22816478732272</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.91291699291221</v>
+        <v>13.46112306091097</v>
       </c>
       <c r="C25">
-        <v>9.314968724250027</v>
+        <v>9.066455729803783</v>
       </c>
       <c r="D25">
-        <v>2.806784130793859</v>
+        <v>6.001170401849361</v>
       </c>
       <c r="E25">
-        <v>7.273045501994437</v>
+        <v>8.976348054210327</v>
       </c>
       <c r="F25">
-        <v>40.7167850283834</v>
+        <v>27.52609149066646</v>
       </c>
       <c r="G25">
-        <v>2.134282533334957</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>33.67432573838986</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.005237870105003</v>
       </c>
       <c r="J25">
-        <v>6.162417004679237</v>
+        <v>11.5002694448371</v>
       </c>
       <c r="K25">
-        <v>14.69225777243588</v>
+        <v>17.43059404869115</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.02029095250595</v>
       </c>
       <c r="M25">
-        <v>13.43159635760631</v>
+        <v>12.34695777411925</v>
       </c>
       <c r="N25">
-        <v>17.24284470387126</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>12.36950988318343</v>
+      </c>
+      <c r="P25">
+        <v>13.55847631511957</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.36897906358571</v>
+        <v>12.03764682374355</v>
       </c>
       <c r="C2">
-        <v>8.211607794372508</v>
+        <v>8.740891969086631</v>
       </c>
       <c r="D2">
-        <v>5.668005083860428</v>
+        <v>5.897574784756287</v>
       </c>
       <c r="E2">
-        <v>8.676872782619405</v>
+        <v>8.781156174050048</v>
       </c>
       <c r="F2">
-        <v>26.95848034745075</v>
+        <v>25.99070769289699</v>
       </c>
       <c r="G2">
-        <v>32.89999173623735</v>
+        <v>30.92920174468959</v>
       </c>
       <c r="I2">
-        <v>3.250835768474635</v>
+        <v>3.085349012837824</v>
       </c>
       <c r="J2">
-        <v>11.48949080000921</v>
+        <v>11.30212235176637</v>
       </c>
       <c r="K2">
-        <v>17.44669757511075</v>
+        <v>16.51426100032549</v>
       </c>
       <c r="L2">
-        <v>6.015907877236477</v>
+        <v>13.5128390546487</v>
       </c>
       <c r="M2">
-        <v>11.34635468044708</v>
+        <v>10.952992617685</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.993759736350674</v>
       </c>
       <c r="O2">
-        <v>11.72230257910418</v>
+        <v>11.3258958081793</v>
       </c>
       <c r="P2">
-        <v>13.81853672664057</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.71095900412816</v>
+      </c>
+      <c r="R2">
+        <v>13.54931090572584</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.53864995675873</v>
+        <v>11.27370342520751</v>
       </c>
       <c r="C3">
-        <v>7.635554598075496</v>
+        <v>8.086316187454923</v>
       </c>
       <c r="D3">
-        <v>5.449610525831302</v>
+        <v>5.66087582754486</v>
       </c>
       <c r="E3">
-        <v>8.483255150565071</v>
+        <v>8.580931421039018</v>
       </c>
       <c r="F3">
-        <v>26.55267563433783</v>
+        <v>25.65123155361892</v>
       </c>
       <c r="G3">
-        <v>32.32424862813127</v>
+        <v>30.53690030650808</v>
       </c>
       <c r="I3">
-        <v>3.441718912806781</v>
+        <v>3.25113571206184</v>
       </c>
       <c r="J3">
-        <v>11.47745649569096</v>
+        <v>11.26249449162969</v>
       </c>
       <c r="K3">
-        <v>17.43609766087186</v>
+        <v>16.54961094336227</v>
       </c>
       <c r="L3">
-        <v>6.016947631640502</v>
+        <v>13.62184823173565</v>
       </c>
       <c r="M3">
-        <v>10.61125808491234</v>
+        <v>10.91561697749438</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.996106576536656</v>
       </c>
       <c r="O3">
-        <v>11.27306282417702</v>
+        <v>10.60727255755532</v>
       </c>
       <c r="P3">
-        <v>13.99245973183782</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.25483348121035</v>
+      </c>
+      <c r="R3">
+        <v>13.71913197419099</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.99584025350375</v>
+        <v>10.77416933692678</v>
       </c>
       <c r="C4">
-        <v>7.266286473556294</v>
+        <v>7.666061079835468</v>
       </c>
       <c r="D4">
-        <v>5.314564468490677</v>
+        <v>5.514549584839361</v>
       </c>
       <c r="E4">
-        <v>8.367223141302778</v>
+        <v>8.460937969185881</v>
       </c>
       <c r="F4">
-        <v>26.31346435896974</v>
+        <v>25.45108783654497</v>
       </c>
       <c r="G4">
-        <v>31.98213740929602</v>
+        <v>30.31046663452353</v>
       </c>
       <c r="I4">
-        <v>3.563810940247874</v>
+        <v>3.357555295397412</v>
       </c>
       <c r="J4">
-        <v>11.47425744801719</v>
+        <v>11.23948826786057</v>
       </c>
       <c r="K4">
-        <v>17.43474213793081</v>
+        <v>16.57474210117457</v>
       </c>
       <c r="L4">
-        <v>6.019870012473024</v>
+        <v>13.68826719227421</v>
       </c>
       <c r="M4">
-        <v>10.13358646112688</v>
+        <v>10.91254799220942</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.999796219329377</v>
       </c>
       <c r="O4">
-        <v>10.99285095844192</v>
+        <v>10.14025865866951</v>
       </c>
       <c r="P4">
-        <v>14.10108937639755</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.96962569528907</v>
+      </c>
+      <c r="R4">
+        <v>13.82518795103685</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.77724836784577</v>
+        <v>10.55732131287731</v>
       </c>
       <c r="C5">
-        <v>7.12042606478362</v>
+        <v>7.498792492160086</v>
       </c>
       <c r="D5">
-        <v>5.26169461766906</v>
+        <v>5.457039705326499</v>
       </c>
       <c r="E5">
-        <v>8.321610222475467</v>
+        <v>8.413725972393706</v>
       </c>
       <c r="F5">
-        <v>26.2101456610405</v>
+        <v>25.36346185804912</v>
       </c>
       <c r="G5">
-        <v>31.83051151435232</v>
+        <v>30.20714965538757</v>
       </c>
       <c r="I5">
-        <v>3.617509436500804</v>
+        <v>3.405246474096793</v>
       </c>
       <c r="J5">
-        <v>11.47129208031534</v>
+        <v>11.22775326173842</v>
       </c>
       <c r="K5">
-        <v>17.42905428067533</v>
+        <v>16.57975506420977</v>
       </c>
       <c r="L5">
-        <v>6.021470765226741</v>
+        <v>13.70965690670178</v>
       </c>
       <c r="M5">
-        <v>9.931362462292679</v>
+        <v>10.91267219209261</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.001704880628655</v>
       </c>
       <c r="O5">
-        <v>10.87783218033865</v>
+        <v>9.942558194908191</v>
       </c>
       <c r="P5">
-        <v>14.14458971033529</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.85237199895179</v>
+      </c>
+      <c r="R5">
+        <v>13.86780931113123</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.73352016243245</v>
+        <v>10.51401466177684</v>
       </c>
       <c r="C6">
-        <v>7.10642664515919</v>
+        <v>7.481263149635383</v>
       </c>
       <c r="D6">
-        <v>5.255740970525615</v>
+        <v>5.450255458507661</v>
       </c>
       <c r="E6">
-        <v>8.31518778215368</v>
+        <v>8.407021133451526</v>
       </c>
       <c r="F6">
-        <v>26.18289542722909</v>
+        <v>25.33905463836855</v>
       </c>
       <c r="G6">
-        <v>31.78698972160291</v>
+        <v>30.17232903192054</v>
       </c>
       <c r="I6">
-        <v>3.629959071476917</v>
+        <v>3.417288243498263</v>
       </c>
       <c r="J6">
-        <v>11.46757316813886</v>
+        <v>11.22253751555125</v>
       </c>
       <c r="K6">
-        <v>17.4203679927377</v>
+        <v>16.57323325628268</v>
       </c>
       <c r="L6">
-        <v>6.021582753934662</v>
+        <v>13.70642821619585</v>
       </c>
       <c r="M6">
-        <v>9.896241215597369</v>
+        <v>10.9085853442058</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.001872097789383</v>
       </c>
       <c r="O6">
-        <v>10.85880358543659</v>
+        <v>9.908238090691141</v>
       </c>
       <c r="P6">
-        <v>14.15032241323679</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.83295006464015</v>
+      </c>
+      <c r="R6">
+        <v>13.87362176799455</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.9738057819033</v>
+        <v>10.74905028703677</v>
       </c>
       <c r="C7">
-        <v>7.292132186233332</v>
+        <v>7.680541364150908</v>
       </c>
       <c r="D7">
-        <v>5.321477003580084</v>
+        <v>5.526405810046852</v>
       </c>
       <c r="E7">
-        <v>8.369593505852761</v>
+        <v>8.465725290983841</v>
       </c>
       <c r="F7">
-        <v>26.28421499875468</v>
+        <v>25.40551747449621</v>
       </c>
       <c r="G7">
-        <v>31.92977950123948</v>
+        <v>30.32912445425887</v>
       </c>
       <c r="I7">
-        <v>3.573704002019108</v>
+        <v>3.369612423691569</v>
       </c>
       <c r="J7">
-        <v>11.46525032582777</v>
+        <v>11.18890461422257</v>
       </c>
       <c r="K7">
-        <v>17.41333487732885</v>
+        <v>16.54608461970466</v>
       </c>
       <c r="L7">
-        <v>6.019378515121578</v>
+        <v>13.66275228109778</v>
       </c>
       <c r="M7">
-        <v>10.12783829405247</v>
+        <v>10.89484120184245</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.99921672437845</v>
       </c>
       <c r="O7">
-        <v>10.99161741432061</v>
+        <v>10.12860366135275</v>
       </c>
       <c r="P7">
-        <v>14.09756787493412</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.96639198186557</v>
+      </c>
+      <c r="R7">
+        <v>13.82062495200476</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.06644528999291</v>
+        <v>11.74599803399589</v>
       </c>
       <c r="C8">
-        <v>8.049823883071806</v>
+        <v>8.518579292094943</v>
       </c>
       <c r="D8">
-        <v>5.602548756266894</v>
+        <v>5.842010340643142</v>
       </c>
       <c r="E8">
-        <v>8.613389371652692</v>
+        <v>8.7233671469703</v>
       </c>
       <c r="F8">
-        <v>26.780397785388</v>
+        <v>25.78058318632375</v>
       </c>
       <c r="G8">
-        <v>32.63406176601105</v>
+        <v>30.95361672611775</v>
       </c>
       <c r="I8">
-        <v>3.327438961382136</v>
+        <v>3.157478826821799</v>
       </c>
       <c r="J8">
-        <v>11.47267724105532</v>
+        <v>11.14089829674529</v>
       </c>
       <c r="K8">
-        <v>17.41388058864812</v>
+        <v>16.47126483802514</v>
       </c>
       <c r="L8">
-        <v>6.015114690712677</v>
+        <v>13.50466955162139</v>
       </c>
       <c r="M8">
-        <v>11.09459595785755</v>
+        <v>10.89874382305774</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.993096414344517</v>
       </c>
       <c r="O8">
-        <v>11.56875595583791</v>
+        <v>11.06117469148559</v>
       </c>
       <c r="P8">
-        <v>13.87289741607827</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.54891476071679</v>
+      </c>
+      <c r="R8">
+        <v>13.59805667792313</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.97960541927965</v>
+        <v>13.50446926975755</v>
       </c>
       <c r="C9">
-        <v>9.369611355913319</v>
+        <v>10.01448983183011</v>
       </c>
       <c r="D9">
-        <v>6.130023832781925</v>
+        <v>6.417281370038229</v>
       </c>
       <c r="E9">
-        <v>9.106631564518315</v>
+        <v>9.235072695826936</v>
       </c>
       <c r="F9">
-        <v>27.87914409563256</v>
+        <v>26.69205159013939</v>
       </c>
       <c r="G9">
-        <v>34.18995777107663</v>
+        <v>32.12485295298366</v>
       </c>
       <c r="I9">
-        <v>2.867485071993611</v>
+        <v>2.757531290435382</v>
       </c>
       <c r="J9">
-        <v>11.53762791428126</v>
+        <v>11.22228544811611</v>
       </c>
       <c r="K9">
-        <v>17.49546255013334</v>
+        <v>16.41987059956091</v>
       </c>
       <c r="L9">
-        <v>6.026289556690657</v>
+        <v>13.24776566622036</v>
       </c>
       <c r="M9">
-        <v>12.78753181008282</v>
+        <v>11.10864151458246</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.000691469385337</v>
       </c>
       <c r="O9">
-        <v>12.65874899532291</v>
+        <v>12.71306657523416</v>
       </c>
       <c r="P9">
-        <v>13.45310056710764</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.65052862283201</v>
+      </c>
+      <c r="R9">
+        <v>13.18669429176321</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.22254414771561</v>
+        <v>14.62721049227859</v>
       </c>
       <c r="C10">
-        <v>10.27709046946826</v>
+        <v>10.98890902089521</v>
       </c>
       <c r="D10">
-        <v>6.510123298218399</v>
+        <v>6.856020999665967</v>
       </c>
       <c r="E10">
-        <v>9.479706673645591</v>
+        <v>9.634465076886544</v>
       </c>
       <c r="F10">
-        <v>28.71795447653921</v>
+        <v>27.29547598780312</v>
       </c>
       <c r="G10">
-        <v>35.3590199865172</v>
+        <v>33.4121542819179</v>
       </c>
       <c r="I10">
-        <v>2.558024930891787</v>
+        <v>2.495494960447826</v>
       </c>
       <c r="J10">
-        <v>11.60375981915462</v>
+        <v>11.056269047358</v>
       </c>
       <c r="K10">
-        <v>17.57341663469671</v>
+        <v>16.34403800425023</v>
       </c>
       <c r="L10">
-        <v>6.046316351274438</v>
+        <v>13.01483883856393</v>
       </c>
       <c r="M10">
-        <v>13.90521917489129</v>
+        <v>11.3105160960432</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.017285931387392</v>
       </c>
       <c r="O10">
-        <v>13.42684862660176</v>
+        <v>13.77547208782951</v>
       </c>
       <c r="P10">
-        <v>13.15009550450384</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>13.41339345234292</v>
+      </c>
+      <c r="R10">
+        <v>12.88253725343936</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.73287674339267</v>
+        <v>15.05588587586921</v>
       </c>
       <c r="C11">
-        <v>10.70575950595823</v>
+        <v>11.36391226102172</v>
       </c>
       <c r="D11">
-        <v>6.689876449035061</v>
+        <v>7.10470648391542</v>
       </c>
       <c r="E11">
-        <v>9.65502324120683</v>
+        <v>9.844031542580501</v>
       </c>
       <c r="F11">
-        <v>29.06793773981995</v>
+        <v>27.37705508176573</v>
       </c>
       <c r="G11">
-        <v>35.8281635395305</v>
+        <v>34.60716721488537</v>
       </c>
       <c r="I11">
-        <v>2.561203131018918</v>
+        <v>2.610661004597132</v>
       </c>
       <c r="J11">
-        <v>11.62506050373952</v>
+        <v>10.58770493928405</v>
       </c>
       <c r="K11">
-        <v>17.58181841662815</v>
+        <v>16.19867910071212</v>
       </c>
       <c r="L11">
-        <v>6.057391548202822</v>
+        <v>12.8289390679683</v>
       </c>
       <c r="M11">
-        <v>14.38333623492952</v>
+        <v>11.32528718482442</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.025704349469092</v>
       </c>
       <c r="O11">
-        <v>13.76807358327266</v>
+        <v>14.18336231509078</v>
       </c>
       <c r="P11">
-        <v>13.00769551835222</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>13.73414747059436</v>
+      </c>
+      <c r="R11">
+        <v>12.72889575454715</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.93370734815888</v>
+        <v>15.22233974847066</v>
       </c>
       <c r="C12">
-        <v>10.84844790927809</v>
+        <v>11.47683337449595</v>
       </c>
       <c r="D12">
-        <v>6.752053781579155</v>
+        <v>7.198072287553462</v>
       </c>
       <c r="E12">
-        <v>9.719302791065534</v>
+        <v>9.924039135192423</v>
       </c>
       <c r="F12">
-        <v>29.22376655163505</v>
+        <v>27.4103561893035</v>
       </c>
       <c r="G12">
-        <v>36.04649417142289</v>
+        <v>35.18439119107828</v>
       </c>
       <c r="I12">
-        <v>2.612087559094906</v>
+        <v>2.65188872739975</v>
       </c>
       <c r="J12">
-        <v>11.64146728082783</v>
+        <v>10.3779330806424</v>
       </c>
       <c r="K12">
-        <v>17.6040564073866</v>
+        <v>16.15015407905718</v>
       </c>
       <c r="L12">
-        <v>6.062429091229181</v>
+        <v>12.763722790758</v>
       </c>
       <c r="M12">
-        <v>14.56263660416383</v>
+        <v>11.33752596765022</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.029575900338147</v>
       </c>
       <c r="O12">
-        <v>13.89588305180218</v>
+        <v>14.33092999812603</v>
       </c>
       <c r="P12">
-        <v>12.95709577628423</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.85200397245046</v>
+      </c>
+      <c r="R12">
+        <v>12.67177053602028</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.89305701527215</v>
+        <v>15.18914882592016</v>
       </c>
       <c r="C13">
-        <v>10.81441985892931</v>
+        <v>11.44962013610156</v>
       </c>
       <c r="D13">
-        <v>6.737622434127171</v>
+        <v>7.176724778423811</v>
       </c>
       <c r="E13">
-        <v>9.705004503072971</v>
+        <v>9.906239739467757</v>
       </c>
       <c r="F13">
-        <v>29.19452215560653</v>
+        <v>27.4082354162426</v>
       </c>
       <c r="G13">
-        <v>36.00720302756804</v>
+        <v>35.06381465863522</v>
       </c>
       <c r="I13">
-        <v>2.600407342581059</v>
+        <v>2.642074535187989</v>
       </c>
       <c r="J13">
-        <v>11.63940804115221</v>
+        <v>10.42591744886896</v>
       </c>
       <c r="K13">
-        <v>17.60283537725642</v>
+        <v>16.16434647797046</v>
       </c>
       <c r="L13">
-        <v>6.061412302337943</v>
+        <v>12.7803427186745</v>
       </c>
       <c r="M13">
-        <v>14.52458833870465</v>
+        <v>11.3379344132496</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.028814244269824</v>
       </c>
       <c r="O13">
-        <v>13.86839507804515</v>
+        <v>14.29992219457301</v>
       </c>
       <c r="P13">
-        <v>12.96861497514823</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.8267604777025</v>
+      </c>
+      <c r="R13">
+        <v>12.68453203159289</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.75051812909814</v>
+        <v>15.07072611699987</v>
       </c>
       <c r="C14">
-        <v>10.71608714904317</v>
+        <v>11.37197310601486</v>
       </c>
       <c r="D14">
-        <v>6.694547370371941</v>
+        <v>7.11185306850657</v>
       </c>
       <c r="E14">
-        <v>9.660117267332492</v>
+        <v>9.850368168152643</v>
       </c>
       <c r="F14">
-        <v>29.08259688390491</v>
+        <v>27.38196947005385</v>
       </c>
       <c r="G14">
-        <v>35.84942194991046</v>
+        <v>34.65615857749749</v>
       </c>
       <c r="I14">
-        <v>2.565070100478936</v>
+        <v>2.613642527813662</v>
       </c>
       <c r="J14">
-        <v>11.62703654709293</v>
+        <v>10.57171206400761</v>
       </c>
       <c r="K14">
-        <v>17.58516431869523</v>
+        <v>16.19629251910471</v>
       </c>
       <c r="L14">
-        <v>6.057834513001144</v>
+        <v>12.82468513479267</v>
       </c>
       <c r="M14">
-        <v>14.39833393586032</v>
+        <v>11.32759372729427</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.02605326192585</v>
       </c>
       <c r="O14">
-        <v>13.77860580536358</v>
+        <v>14.19584294231801</v>
       </c>
       <c r="P14">
-        <v>13.00379694062285</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.74390625188651</v>
+      </c>
+      <c r="R14">
+        <v>12.72439648420238</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.65781064105604</v>
+        <v>14.99255244234089</v>
       </c>
       <c r="C15">
-        <v>10.66237688180703</v>
+        <v>11.32974226923459</v>
       </c>
       <c r="D15">
-        <v>6.670218502035813</v>
+        <v>7.074776978091289</v>
       </c>
       <c r="E15">
-        <v>9.633533407624698</v>
+        <v>9.817395861361627</v>
       </c>
       <c r="F15">
-        <v>29.00553077398835</v>
+        <v>27.35505779634175</v>
       </c>
       <c r="G15">
-        <v>35.73748513703124</v>
+        <v>34.40269266748061</v>
       </c>
       <c r="I15">
-        <v>2.544994536132195</v>
+        <v>2.59821439879255</v>
       </c>
       <c r="J15">
-        <v>11.61658201977339</v>
+        <v>10.65364650011994</v>
       </c>
       <c r="K15">
-        <v>17.56734312618165</v>
+        <v>16.20801864761142</v>
       </c>
       <c r="L15">
-        <v>6.055526031524717</v>
+        <v>12.84640363989106</v>
       </c>
       <c r="M15">
-        <v>14.31970993529653</v>
+        <v>11.31497927030079</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.024230822450868</v>
       </c>
       <c r="O15">
-        <v>13.72348037529892</v>
+        <v>14.13017965346273</v>
       </c>
       <c r="P15">
-        <v>13.02412677602504</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.69273528835394</v>
+      </c>
+      <c r="R15">
+        <v>12.7478250404639</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.14724400893174</v>
+        <v>14.55816983512115</v>
       </c>
       <c r="C16">
-        <v>10.30759021466929</v>
+        <v>11.02180881416851</v>
       </c>
       <c r="D16">
-        <v>6.516501379902655</v>
+        <v>6.858200333227097</v>
       </c>
       <c r="E16">
-        <v>9.475887717756857</v>
+        <v>9.628638337909971</v>
       </c>
       <c r="F16">
-        <v>28.62143586308141</v>
+        <v>27.21638721026406</v>
       </c>
       <c r="G16">
-        <v>35.19672466267846</v>
+        <v>33.21719687086718</v>
       </c>
       <c r="I16">
-        <v>2.597123531784658</v>
+        <v>2.538206985117399</v>
       </c>
       <c r="J16">
-        <v>11.5772579934384</v>
+        <v>11.05819411019258</v>
       </c>
       <c r="K16">
-        <v>17.51270165126752</v>
+        <v>16.29671813944399</v>
       </c>
       <c r="L16">
-        <v>6.044205377180968</v>
+        <v>12.98629068083629</v>
       </c>
       <c r="M16">
-        <v>13.86658550747436</v>
+        <v>11.26364201902362</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.015371753069116</v>
       </c>
       <c r="O16">
-        <v>13.40477412037554</v>
+        <v>13.74098475259951</v>
       </c>
       <c r="P16">
-        <v>13.14886295424818</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.39231832629937</v>
+      </c>
+      <c r="R16">
+        <v>12.88487538248486</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.82556412430766</v>
+        <v>14.27772512418263</v>
       </c>
       <c r="C17">
-        <v>10.08613805212728</v>
+        <v>10.81202661926915</v>
       </c>
       <c r="D17">
-        <v>6.421396994583393</v>
+        <v>6.733311683348989</v>
       </c>
       <c r="E17">
-        <v>9.379501592290213</v>
+        <v>9.517883492467087</v>
       </c>
       <c r="F17">
-        <v>28.38826825543378</v>
+        <v>27.09903288934925</v>
       </c>
       <c r="G17">
-        <v>34.86770673790874</v>
+        <v>32.63774603631042</v>
       </c>
       <c r="I17">
-        <v>2.68069260224994</v>
+        <v>2.608481059552552</v>
       </c>
       <c r="J17">
-        <v>11.55461154628872</v>
+        <v>11.22937687042483</v>
       </c>
       <c r="K17">
-        <v>17.48116346546959</v>
+        <v>16.33420022323659</v>
       </c>
       <c r="L17">
-        <v>6.037985409282625</v>
+        <v>13.06010244508438</v>
       </c>
       <c r="M17">
-        <v>13.58180956428858</v>
+        <v>11.22145288001998</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.01041411432801</v>
       </c>
       <c r="O17">
-        <v>13.20705671140318</v>
+        <v>13.48628059258173</v>
       </c>
       <c r="P17">
-        <v>13.22573199426046</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>13.20197035350178</v>
+      </c>
+      <c r="R17">
+        <v>12.96672406485907</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.65030547491457</v>
+        <v>14.1237238816886</v>
       </c>
       <c r="C18">
-        <v>9.938905529547998</v>
+        <v>10.66505752766575</v>
       </c>
       <c r="D18">
-        <v>6.360767646882959</v>
+        <v>6.658868383266404</v>
       </c>
       <c r="E18">
-        <v>9.32184811111933</v>
+        <v>9.45370377210477</v>
       </c>
       <c r="F18">
-        <v>28.27772737891176</v>
+        <v>27.04192381434621</v>
       </c>
       <c r="G18">
-        <v>34.71999615398594</v>
+        <v>32.39603212470269</v>
       </c>
       <c r="I18">
-        <v>2.719049066944896</v>
+        <v>2.637698458418252</v>
       </c>
       <c r="J18">
-        <v>11.54978573055736</v>
+        <v>11.30568677682953</v>
       </c>
       <c r="K18">
-        <v>17.4820409692664</v>
+        <v>16.36673367941592</v>
       </c>
       <c r="L18">
-        <v>6.035109121018137</v>
+        <v>13.11055161641925</v>
       </c>
       <c r="M18">
-        <v>13.41763440810075</v>
+        <v>11.2071665650594</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.008164631563677</v>
       </c>
       <c r="O18">
-        <v>13.09241747227008</v>
+        <v>13.33592665486386</v>
       </c>
       <c r="P18">
-        <v>13.27328739145069</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.09019616424224</v>
+      </c>
+      <c r="R18">
+        <v>13.0153568622513</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.58050664316046</v>
+        <v>14.06109820665944</v>
       </c>
       <c r="C19">
-        <v>9.9030063608418</v>
+        <v>10.62820816697807</v>
       </c>
       <c r="D19">
-        <v>6.344540508402306</v>
+        <v>6.638418332279132</v>
       </c>
       <c r="E19">
-        <v>9.304161151269682</v>
+        <v>9.434060573739925</v>
       </c>
       <c r="F19">
-        <v>28.22300914708191</v>
+        <v>27.00379002543997</v>
       </c>
       <c r="G19">
-        <v>34.63895680590674</v>
+        <v>32.29265706645328</v>
       </c>
       <c r="I19">
-        <v>2.739917219231262</v>
+        <v>2.656967127068203</v>
       </c>
       <c r="J19">
-        <v>11.5423302838462</v>
+        <v>11.32086633650779</v>
       </c>
       <c r="K19">
-        <v>17.46834264336149</v>
+        <v>16.36369399913514</v>
       </c>
       <c r="L19">
-        <v>6.033841437774255</v>
+        <v>13.11730348931074</v>
       </c>
       <c r="M19">
-        <v>13.35997442387329</v>
+        <v>11.1913413400435</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.007104453806947</v>
       </c>
       <c r="O19">
-        <v>13.05357572461272</v>
+        <v>13.28242582497202</v>
       </c>
       <c r="P19">
-        <v>13.28693787480477</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.05208009422416</v>
+      </c>
+      <c r="R19">
+        <v>13.02984143116189</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.86113021603925</v>
+        <v>14.30907924875783</v>
       </c>
       <c r="C20">
-        <v>10.1084291538305</v>
+        <v>10.83372675402537</v>
       </c>
       <c r="D20">
-        <v>6.431111440523241</v>
+        <v>6.745874337762727</v>
       </c>
       <c r="E20">
-        <v>9.389565481227654</v>
+        <v>9.529304075100404</v>
       </c>
       <c r="F20">
-        <v>28.41476253175275</v>
+        <v>27.11443122739829</v>
       </c>
       <c r="G20">
-        <v>34.90578586128682</v>
+        <v>32.69704690908515</v>
       </c>
       <c r="I20">
-        <v>2.67092866858535</v>
+        <v>2.599943583848971</v>
       </c>
       <c r="J20">
-        <v>11.55756755746476</v>
+        <v>11.214743906355</v>
       </c>
       <c r="K20">
-        <v>17.48588081295574</v>
+        <v>16.33215720674287</v>
       </c>
       <c r="L20">
-        <v>6.038654705191561</v>
+        <v>13.05366619492383</v>
       </c>
       <c r="M20">
-        <v>13.61254949312797</v>
+        <v>11.22738173988042</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.010957100902122</v>
       </c>
       <c r="O20">
-        <v>13.2281753293074</v>
+        <v>13.51416333020706</v>
       </c>
       <c r="P20">
-        <v>13.21778598781778</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>13.22244949953209</v>
+      </c>
+      <c r="R20">
+        <v>12.95828078791672</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.77903319990141</v>
+        <v>15.08190127481718</v>
       </c>
       <c r="C21">
-        <v>10.76414893441211</v>
+        <v>11.3849509714352</v>
       </c>
       <c r="D21">
-        <v>6.713190704053068</v>
+        <v>7.152100608275338</v>
       </c>
       <c r="E21">
-        <v>9.675817711418711</v>
+        <v>9.877240333627039</v>
       </c>
       <c r="F21">
-        <v>29.09087375999786</v>
+        <v>27.30879363118018</v>
       </c>
       <c r="G21">
-        <v>35.85195366172204</v>
+        <v>34.96891724627383</v>
       </c>
       <c r="I21">
-        <v>2.579968921507187</v>
+        <v>2.626186243154449</v>
       </c>
       <c r="J21">
-        <v>11.62217355224829</v>
+        <v>10.39348779783924</v>
       </c>
       <c r="K21">
-        <v>17.57005248313205</v>
+        <v>16.13878374989301</v>
       </c>
       <c r="L21">
-        <v>6.058387836158891</v>
+        <v>12.77812742850906</v>
       </c>
       <c r="M21">
-        <v>14.43327412116901</v>
+        <v>11.29075099575059</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.026007406061477</v>
       </c>
       <c r="O21">
-        <v>13.80513113101264</v>
+        <v>14.20810076762799</v>
       </c>
       <c r="P21">
-        <v>12.9899374286162</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>13.76226154790235</v>
+      </c>
+      <c r="R21">
+        <v>12.70598396237425</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.36856044270397</v>
+        <v>15.5761379981436</v>
       </c>
       <c r="C22">
-        <v>11.15613283274487</v>
+        <v>11.70263173174656</v>
       </c>
       <c r="D22">
-        <v>6.88716256321545</v>
+        <v>7.410782894628028</v>
       </c>
       <c r="E22">
-        <v>9.860590902093076</v>
+        <v>10.10491652506281</v>
       </c>
       <c r="F22">
-        <v>29.57175891548997</v>
+        <v>27.45163462125027</v>
       </c>
       <c r="G22">
-        <v>36.53444050421278</v>
+        <v>36.61970371919612</v>
       </c>
       <c r="I22">
-        <v>2.723090459866988</v>
+        <v>2.740911908446306</v>
       </c>
       <c r="J22">
-        <v>11.68011641122058</v>
+        <v>9.859816244126572</v>
       </c>
       <c r="K22">
-        <v>17.65747289806743</v>
+        <v>16.02692639739187</v>
       </c>
       <c r="L22">
-        <v>6.074325255553179</v>
+        <v>12.61005014384165</v>
       </c>
       <c r="M22">
-        <v>14.95042579084815</v>
+        <v>11.35298858759928</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.038627133066504</v>
       </c>
       <c r="O22">
-        <v>14.17454267898423</v>
+        <v>14.64000234194212</v>
       </c>
       <c r="P22">
-        <v>12.84654668548789</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>14.10472091924429</v>
+      </c>
+      <c r="R22">
+        <v>12.54443381390511</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.07250547222239</v>
+        <v>15.33776254362557</v>
       </c>
       <c r="C23">
-        <v>10.9252490317455</v>
+        <v>11.53184543598053</v>
       </c>
       <c r="D23">
-        <v>6.787433684492959</v>
+        <v>7.255072714924882</v>
       </c>
       <c r="E23">
-        <v>9.758888671285503</v>
+        <v>9.97458285050743</v>
       </c>
       <c r="F23">
-        <v>29.34387366965999</v>
+        <v>27.44489407282574</v>
       </c>
       <c r="G23">
-        <v>36.22192064974678</v>
+        <v>35.61519525360488</v>
       </c>
       <c r="I23">
-        <v>2.641932480906223</v>
+        <v>2.674423214993316</v>
       </c>
       <c r="J23">
-        <v>11.6589260125166</v>
+        <v>10.23815625945215</v>
       </c>
       <c r="K23">
-        <v>17.63460071782032</v>
+        <v>16.13033639938919</v>
       </c>
       <c r="L23">
-        <v>6.066178475430265</v>
+        <v>12.72969200186833</v>
       </c>
       <c r="M23">
-        <v>14.67910531752292</v>
+        <v>11.35540003670279</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.032517872713967</v>
       </c>
       <c r="O23">
-        <v>13.97795846062145</v>
+        <v>14.42545742766696</v>
       </c>
       <c r="P23">
-        <v>12.92723127489189</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>13.92703726600353</v>
+      </c>
+      <c r="R23">
+        <v>12.63631459204315</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.87202600127963</v>
+        <v>14.32100001605924</v>
       </c>
       <c r="C24">
-        <v>10.05983196352759</v>
+        <v>10.78525297662403</v>
       </c>
       <c r="D24">
-        <v>6.414882309236382</v>
+        <v>6.728598078116274</v>
       </c>
       <c r="E24">
-        <v>9.380079611380101</v>
+        <v>9.519291849846381</v>
       </c>
       <c r="F24">
-        <v>28.45047979088153</v>
+        <v>27.1535613512539</v>
       </c>
       <c r="G24">
-        <v>34.97382247391099</v>
+        <v>32.75298361034961</v>
       </c>
       <c r="I24">
-        <v>2.654570679163926</v>
+        <v>2.579289420799084</v>
       </c>
       <c r="J24">
-        <v>11.57243330956063</v>
+        <v>11.23655715599638</v>
       </c>
       <c r="K24">
-        <v>17.5224584172604</v>
+        <v>16.36884661723051</v>
       </c>
       <c r="L24">
-        <v>6.03927894317813</v>
+        <v>13.08259426996598</v>
       </c>
       <c r="M24">
-        <v>13.60312560702965</v>
+        <v>11.25341337589931</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.011611728670607</v>
       </c>
       <c r="O24">
-        <v>13.21835339775644</v>
+        <v>13.50586622872315</v>
       </c>
       <c r="P24">
-        <v>13.22816478732272</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>13.21294519511928</v>
+      </c>
+      <c r="R24">
+        <v>12.96708416752083</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.46112306091097</v>
+        <v>13.03159210312736</v>
       </c>
       <c r="C25">
-        <v>9.066455729803783</v>
+        <v>9.679554945801481</v>
       </c>
       <c r="D25">
-        <v>6.001170401849361</v>
+        <v>6.268870712062161</v>
       </c>
       <c r="E25">
-        <v>8.976348054210327</v>
+        <v>9.096389701132717</v>
       </c>
       <c r="F25">
-        <v>27.52609149066646</v>
+        <v>26.41575634977749</v>
       </c>
       <c r="G25">
-        <v>33.67432573838986</v>
+        <v>31.61759855010722</v>
       </c>
       <c r="I25">
-        <v>3.005237870105003</v>
+        <v>2.881436643704657</v>
       </c>
       <c r="J25">
-        <v>11.5002694448371</v>
+        <v>11.24115422059426</v>
       </c>
       <c r="K25">
-        <v>17.43059404869115</v>
+        <v>16.40710734401349</v>
       </c>
       <c r="L25">
-        <v>6.02029095250595</v>
+        <v>13.29965700267724</v>
       </c>
       <c r="M25">
-        <v>12.34695777411925</v>
+        <v>11.0172757545625</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.995868225576872</v>
       </c>
       <c r="O25">
-        <v>12.36950988318343</v>
+        <v>12.29069954810112</v>
       </c>
       <c r="P25">
-        <v>13.55847631511957</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>12.36133862334391</v>
+      </c>
+      <c r="R25">
+        <v>13.29342986155173</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
